--- a/converter/src/test/resources/conversions_result.xlsx
+++ b/converter/src/test/resources/conversions_result.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ns9="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns10="http://schemas.microsoft.com/office/excel/2008/2/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ns9="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns10="http://schemas.microsoft.com/office/excel/2008/2/main">
   <bookViews>
     <workbookView/>
   </bookViews>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ns9="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns10="http://schemas.microsoft.com/office/excel/2008/2/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ns9="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns10="http://schemas.microsoft.com/office/excel/2008/2/main">
   <sheetData>
     <row>
       <c r="1" t="inlineStr">

--- a/converter/src/test/resources/conversions_result.xlsx
+++ b/converter/src/test/resources/conversions_result.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ns9="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns10="http://schemas.microsoft.com/office/excel/2008/2/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ns9="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns10="http://schemas.microsoft.com/office/excel/2008/2/main">
   <bookViews>
     <workbookView/>
   </bookViews>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ns9="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns10="http://schemas.microsoft.com/office/excel/2008/2/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ns9="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns10="http://schemas.microsoft.com/office/excel/2008/2/main">
   <sheetData>
     <row>
       <c r="1" t="inlineStr">
